--- a/Input/GQE.xlsx
+++ b/Input/GQE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/DemographicForecasting/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/DemoForecastUpdate/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{ED3CE5D8-57CE-40DF-A6A8-E485B0E76818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B402B8D3-D094-4639-97CE-5CBD02E25564}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{ED3CE5D8-57CE-40DF-A6A8-E485B0E76818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{728F675C-71DF-4B31-9781-C3C3AC363C45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DCBE1F1F-9690-9742-87D6-3AFFF5D6D310}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCBE1F1F-9690-9742-87D6-3AFFF5D6D310}"/>
   </bookViews>
   <sheets>
     <sheet name="GQE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GQE!$D$1:$D$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GQE!$A$1:$F$190</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -497,8 +497,8 @@
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4310,7 +4310,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D190" xr:uid="{86EB684D-143C-BA4A-AB19-10546832F3B9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>